--- a/data/pca/factorExposure/factorExposure_2010-06-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-07.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01284472681681146</v>
+        <v>-0.01682740557119701</v>
       </c>
       <c r="C2">
-        <v>-0.0038882472528474</v>
+        <v>0.0008711051044884336</v>
       </c>
       <c r="D2">
-        <v>-0.01297219789614024</v>
+        <v>0.008677534500647288</v>
       </c>
       <c r="E2">
-        <v>0.03493254585324834</v>
+        <v>0.002280582983201269</v>
       </c>
       <c r="F2">
-        <v>0.0005538984519023654</v>
+        <v>0.01306834747848964</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1240181936401748</v>
+        <v>-0.09518168057274885</v>
       </c>
       <c r="C4">
-        <v>-0.1059451567668666</v>
+        <v>0.01758028789176383</v>
       </c>
       <c r="D4">
-        <v>0.01039058301316681</v>
+        <v>0.08081415658608297</v>
       </c>
       <c r="E4">
-        <v>-0.01503308613690998</v>
+        <v>-0.02619603011977835</v>
       </c>
       <c r="F4">
-        <v>0.1930892610400031</v>
+        <v>-0.03599932298129225</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1329790717019257</v>
+        <v>-0.1520942388654991</v>
       </c>
       <c r="C6">
-        <v>-0.05908735800967943</v>
+        <v>0.02449625309055281</v>
       </c>
       <c r="D6">
-        <v>0.008051129304913522</v>
+        <v>-0.02353737775418665</v>
       </c>
       <c r="E6">
-        <v>0.02007046827690179</v>
+        <v>-0.01511563034700506</v>
       </c>
       <c r="F6">
-        <v>0.03857025010247345</v>
+        <v>-0.03889473180242118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06832336956867947</v>
+        <v>-0.06175435592284881</v>
       </c>
       <c r="C7">
-        <v>-0.07232650241678344</v>
+        <v>4.626128379108857e-05</v>
       </c>
       <c r="D7">
-        <v>-0.01245116189274732</v>
+        <v>0.05153672919946641</v>
       </c>
       <c r="E7">
-        <v>-0.007851575046777966</v>
+        <v>-0.01273618416069976</v>
       </c>
       <c r="F7">
-        <v>0.01116614096920819</v>
+        <v>-0.05651861593553949</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04557862573947406</v>
+        <v>-0.05952446259867406</v>
       </c>
       <c r="C8">
-        <v>-0.02345961767564653</v>
+        <v>-0.01268377004790279</v>
       </c>
       <c r="D8">
-        <v>0.005451856914283351</v>
+        <v>0.02776156823471392</v>
       </c>
       <c r="E8">
-        <v>-0.007765415780670301</v>
+        <v>-0.01209929463068685</v>
       </c>
       <c r="F8">
-        <v>0.1529938735749791</v>
+        <v>0.02512521729775877</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08701887695065638</v>
+        <v>-0.07250210139071728</v>
       </c>
       <c r="C9">
-        <v>-0.07734723779112082</v>
+        <v>0.0137647188892458</v>
       </c>
       <c r="D9">
-        <v>0.02626313088392302</v>
+        <v>0.08065232495827729</v>
       </c>
       <c r="E9">
-        <v>-0.0168735028336362</v>
+        <v>-0.02082114288149869</v>
       </c>
       <c r="F9">
-        <v>0.1549011326003232</v>
+        <v>-0.05753592813072115</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1313439046527679</v>
+        <v>-0.09201452595660205</v>
       </c>
       <c r="C10">
-        <v>0.1700898467251021</v>
+        <v>0.01488902443086914</v>
       </c>
       <c r="D10">
-        <v>-0.01453393065192624</v>
+        <v>-0.173438037918121</v>
       </c>
       <c r="E10">
-        <v>0.04030914125026382</v>
+        <v>0.03513181873591184</v>
       </c>
       <c r="F10">
-        <v>-0.03709042990880843</v>
+        <v>0.05148430260187648</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06672456415551746</v>
+        <v>-0.08832131848119479</v>
       </c>
       <c r="C11">
-        <v>-0.06604858330360619</v>
+        <v>0.01290280381974696</v>
       </c>
       <c r="D11">
-        <v>0.04248237147248685</v>
+        <v>0.1111895114809071</v>
       </c>
       <c r="E11">
-        <v>-0.004861627012136415</v>
+        <v>-0.04134586731491417</v>
       </c>
       <c r="F11">
-        <v>0.08970054823778849</v>
+        <v>-0.0250652483466791</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0674733109127699</v>
+        <v>-0.09338712105285565</v>
       </c>
       <c r="C12">
-        <v>-0.07116582118328985</v>
+        <v>0.01087236205803416</v>
       </c>
       <c r="D12">
-        <v>0.05419126660998274</v>
+        <v>0.1181542609262199</v>
       </c>
       <c r="E12">
-        <v>-0.0414975237410268</v>
+        <v>-0.03946716368511986</v>
       </c>
       <c r="F12">
-        <v>0.08970480074107129</v>
+        <v>-0.02761505554992405</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03749513091016419</v>
+        <v>-0.04412050126011285</v>
       </c>
       <c r="C13">
-        <v>-0.04220464919187648</v>
+        <v>0.004627993864329816</v>
       </c>
       <c r="D13">
-        <v>-0.02101484582479502</v>
+        <v>0.0435848186664145</v>
       </c>
       <c r="E13">
-        <v>-0.01684001596949844</v>
+        <v>0.01517780691148554</v>
       </c>
       <c r="F13">
-        <v>0.03998247673062896</v>
+        <v>-0.01868883333748767</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03523789373101899</v>
+        <v>-0.02201686797934541</v>
       </c>
       <c r="C14">
-        <v>-0.03525690318486062</v>
+        <v>0.01493623272858867</v>
       </c>
       <c r="D14">
-        <v>0.02054775289127826</v>
+        <v>0.03192968546784549</v>
       </c>
       <c r="E14">
-        <v>-0.01740151316358761</v>
+        <v>-0.01619377949798818</v>
       </c>
       <c r="F14">
-        <v>0.06064762313835007</v>
+        <v>-0.02171023969630936</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01991948913312557</v>
+        <v>-0.03268659810094827</v>
       </c>
       <c r="C15">
-        <v>-0.0180279209874987</v>
+        <v>0.005814594815142203</v>
       </c>
       <c r="D15">
-        <v>-0.06862768843487178</v>
+        <v>0.04341883509222718</v>
       </c>
       <c r="E15">
-        <v>0.01666906945215809</v>
+        <v>-0.007385375236860814</v>
       </c>
       <c r="F15">
-        <v>0.01678146270759885</v>
+        <v>-0.03310396345190098</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07536478322798117</v>
+        <v>-0.07547497234142965</v>
       </c>
       <c r="C16">
-        <v>-0.07923993829740479</v>
+        <v>0.004712572491419511</v>
       </c>
       <c r="D16">
-        <v>0.04031850783975308</v>
+        <v>0.1152545462029314</v>
       </c>
       <c r="E16">
-        <v>-0.01821389363643205</v>
+        <v>-0.05655852050269765</v>
       </c>
       <c r="F16">
-        <v>0.08588655943880939</v>
+        <v>-0.03427780618618046</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0205899988929989</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003824410219395504</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02165366747930052</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01030600500487262</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.0254984252636258</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04767401815178637</v>
+        <v>-0.06184377440958165</v>
       </c>
       <c r="C20">
-        <v>-0.02223684001945834</v>
+        <v>0.002293035566136033</v>
       </c>
       <c r="D20">
-        <v>-0.03090274889829958</v>
+        <v>0.07042742113618718</v>
       </c>
       <c r="E20">
-        <v>-0.04849634975475466</v>
+        <v>-0.05075269247784532</v>
       </c>
       <c r="F20">
-        <v>0.07356975561525313</v>
+        <v>-0.03028794257422365</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02465562069993793</v>
+        <v>-0.03898166368419641</v>
       </c>
       <c r="C21">
-        <v>-0.01790615795322254</v>
+        <v>0.007884696366259438</v>
       </c>
       <c r="D21">
-        <v>0.01748514392574103</v>
+        <v>0.03296894103500195</v>
       </c>
       <c r="E21">
-        <v>-0.01197080957330894</v>
+        <v>0.01271526838810315</v>
       </c>
       <c r="F21">
-        <v>0.05233619951760863</v>
+        <v>0.01754430419208222</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05735463509646804</v>
+        <v>-0.04328259951136229</v>
       </c>
       <c r="C22">
-        <v>-0.02828242324940757</v>
+        <v>0.0005003228155238932</v>
       </c>
       <c r="D22">
-        <v>-0.6397152193770195</v>
+        <v>0.002608154246501232</v>
       </c>
       <c r="E22">
-        <v>-0.1777971909241813</v>
+        <v>-0.03297207452989038</v>
       </c>
       <c r="F22">
-        <v>-0.02094860383805123</v>
+        <v>0.01434388230912866</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0582210224978612</v>
+        <v>-0.04337035000143629</v>
       </c>
       <c r="C23">
-        <v>-0.03002483525468595</v>
+        <v>0.0005329203103170433</v>
       </c>
       <c r="D23">
-        <v>-0.6419918398918287</v>
+        <v>0.002802085043745615</v>
       </c>
       <c r="E23">
-        <v>-0.1778188114928664</v>
+        <v>-0.03338182804870317</v>
       </c>
       <c r="F23">
-        <v>-0.01579777742079016</v>
+        <v>0.01381473932017656</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0747275964377835</v>
+        <v>-0.08179773600679389</v>
       </c>
       <c r="C24">
-        <v>-0.07869594540942608</v>
+        <v>0.004867388156198217</v>
       </c>
       <c r="D24">
-        <v>0.03151902488796515</v>
+        <v>0.1149733024234527</v>
       </c>
       <c r="E24">
-        <v>-0.01270777831630179</v>
+        <v>-0.04475850642206413</v>
       </c>
       <c r="F24">
-        <v>0.08968291458404844</v>
+        <v>-0.02621864348399815</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07377027158556181</v>
+        <v>-0.0858363016996383</v>
       </c>
       <c r="C25">
-        <v>-0.06082043666685394</v>
+        <v>0.006821001857658289</v>
       </c>
       <c r="D25">
-        <v>0.05794240825398553</v>
+        <v>0.1018290040656414</v>
       </c>
       <c r="E25">
-        <v>-0.01149449529104151</v>
+        <v>-0.02711723935953516</v>
       </c>
       <c r="F25">
-        <v>0.09481221327239045</v>
+        <v>-0.03470958692220402</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04342532892968294</v>
+        <v>-0.05648597236735815</v>
       </c>
       <c r="C26">
-        <v>-0.002878856260919773</v>
+        <v>0.01563326033701623</v>
       </c>
       <c r="D26">
-        <v>-0.01342949571356943</v>
+        <v>0.03285501041519059</v>
       </c>
       <c r="E26">
-        <v>-0.07397136572137694</v>
+        <v>-0.02322869351304904</v>
       </c>
       <c r="F26">
-        <v>0.06058493677791001</v>
+        <v>0.005473872433086695</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1600616364671448</v>
+        <v>-0.13790853614412</v>
       </c>
       <c r="C28">
-        <v>0.2722801768072885</v>
+        <v>0.01217176568681169</v>
       </c>
       <c r="D28">
-        <v>0.007642216407634693</v>
+        <v>-0.2719670265380816</v>
       </c>
       <c r="E28">
-        <v>-0.01686837610008414</v>
+        <v>0.06661548930342252</v>
       </c>
       <c r="F28">
-        <v>0.03607893416635823</v>
+        <v>-0.03728005206290516</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03564320164929854</v>
+        <v>-0.02742180769500055</v>
       </c>
       <c r="C29">
-        <v>-0.03055645569739709</v>
+        <v>0.00920923964421232</v>
       </c>
       <c r="D29">
-        <v>0.01979882218802174</v>
+        <v>0.03010807304180517</v>
       </c>
       <c r="E29">
-        <v>-0.0248916442615344</v>
+        <v>-0.008635440033323198</v>
       </c>
       <c r="F29">
-        <v>0.06362467824347988</v>
+        <v>0.009241323386793964</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09401645119347565</v>
+        <v>-0.06504900693851778</v>
       </c>
       <c r="C30">
-        <v>-0.05580812462029396</v>
+        <v>0.0066585359552419</v>
       </c>
       <c r="D30">
-        <v>0.04070488442047649</v>
+        <v>0.07907681970936871</v>
       </c>
       <c r="E30">
-        <v>-0.2886782496686268</v>
+        <v>-0.0219429251803672</v>
       </c>
       <c r="F30">
-        <v>0.183291919059156</v>
+        <v>-0.1179911910336009</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03195366185631764</v>
+        <v>-0.04894290192053246</v>
       </c>
       <c r="C31">
-        <v>-0.06494324967405976</v>
+        <v>0.0152130578998724</v>
       </c>
       <c r="D31">
-        <v>0.0002069326913381498</v>
+        <v>0.02888665663861803</v>
       </c>
       <c r="E31">
-        <v>8.294475245133329e-05</v>
+        <v>-0.02647344950766778</v>
       </c>
       <c r="F31">
-        <v>0.04917258176018716</v>
+        <v>0.002476289049755948</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05486592664416733</v>
+        <v>-0.04927857986563626</v>
       </c>
       <c r="C32">
-        <v>-0.0145598522114525</v>
+        <v>0.0006314411954765664</v>
       </c>
       <c r="D32">
-        <v>0.05513955117539396</v>
+        <v>0.03029088367555545</v>
       </c>
       <c r="E32">
-        <v>0.05894043534673597</v>
+        <v>-0.02656390438700931</v>
       </c>
       <c r="F32">
-        <v>0.0549334548560552</v>
+        <v>-0.001960623078583649</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09543421411931152</v>
+        <v>-0.09198121321432245</v>
       </c>
       <c r="C33">
-        <v>-0.07970952630834907</v>
+        <v>0.01015623531663962</v>
       </c>
       <c r="D33">
-        <v>0.0304266526524272</v>
+        <v>0.09109631685294797</v>
       </c>
       <c r="E33">
-        <v>-0.04975016001117846</v>
+        <v>-0.04392302608820329</v>
       </c>
       <c r="F33">
-        <v>0.0486413218258706</v>
+        <v>-0.04071014947613255</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06682586423558833</v>
+        <v>-0.06924435402716601</v>
       </c>
       <c r="C34">
-        <v>-0.05956614177503432</v>
+        <v>0.01289237957903882</v>
       </c>
       <c r="D34">
-        <v>0.04203512686100506</v>
+        <v>0.09527636788990132</v>
       </c>
       <c r="E34">
-        <v>-0.01355639361559716</v>
+        <v>-0.02834501625001912</v>
       </c>
       <c r="F34">
-        <v>0.0996063482649365</v>
+        <v>-0.04917458702734049</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01616412591736761</v>
+        <v>-0.0244863755185439</v>
       </c>
       <c r="C35">
-        <v>-0.006052687526303526</v>
+        <v>0.002689086247094613</v>
       </c>
       <c r="D35">
-        <v>-0.001800368327250346</v>
+        <v>0.009656493277001901</v>
       </c>
       <c r="E35">
-        <v>-0.007493801189881692</v>
+        <v>-0.01087277586411839</v>
       </c>
       <c r="F35">
-        <v>0.04350128584146713</v>
+        <v>-0.01142120210239741</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02466725449824906</v>
+        <v>-0.02511728665996534</v>
       </c>
       <c r="C36">
-        <v>-0.01516838225729826</v>
+        <v>0.007255574640646392</v>
       </c>
       <c r="D36">
-        <v>-0.01014513598040348</v>
+        <v>0.03751493938763954</v>
       </c>
       <c r="E36">
-        <v>-0.03097112464175453</v>
+        <v>-0.0151686039437912</v>
       </c>
       <c r="F36">
-        <v>0.06634359276560023</v>
+        <v>-0.008545203693747188</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01830961707481653</v>
+        <v>-0.002615300871460312</v>
       </c>
       <c r="C38">
-        <v>-0.04262789265490532</v>
+        <v>0.0004475974968621043</v>
       </c>
       <c r="D38">
-        <v>-0.02453400896411605</v>
+        <v>0.002507753221435179</v>
       </c>
       <c r="E38">
-        <v>-0.05592662465822092</v>
+        <v>-0.003321198877156135</v>
       </c>
       <c r="F38">
-        <v>-0.1091616571044133</v>
+        <v>0.002294144941652852</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1043145856772052</v>
+        <v>-0.1110848789915635</v>
       </c>
       <c r="C39">
-        <v>-0.09394884402537294</v>
+        <v>0.01867159672501603</v>
       </c>
       <c r="D39">
-        <v>0.1396127624925154</v>
+        <v>0.1469149573672172</v>
       </c>
       <c r="E39">
-        <v>-0.1449195038906058</v>
+        <v>-0.05090300123765574</v>
       </c>
       <c r="F39">
-        <v>0.11927871106199</v>
+        <v>-0.03682498072675865</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02598667181904017</v>
+        <v>-0.03769880278098678</v>
       </c>
       <c r="C40">
-        <v>-0.0677701969527371</v>
+        <v>0.007671898906942295</v>
       </c>
       <c r="D40">
-        <v>-0.02531359537173141</v>
+        <v>0.02997065872318973</v>
       </c>
       <c r="E40">
-        <v>0.02447961771580016</v>
+        <v>-0.001937072011494476</v>
       </c>
       <c r="F40">
-        <v>0.04209316916466807</v>
+        <v>0.01892902825720513</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03747467549035505</v>
+        <v>-0.0267782330428519</v>
       </c>
       <c r="C41">
-        <v>-0.02992746318005976</v>
+        <v>0.006862347964204963</v>
       </c>
       <c r="D41">
-        <v>0.01879650439104942</v>
+        <v>0.01067917893897626</v>
       </c>
       <c r="E41">
-        <v>-0.01818726419786254</v>
+        <v>-0.01136579266725639</v>
       </c>
       <c r="F41">
-        <v>0.01152161073757633</v>
+        <v>0.01172745551730603</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04487098182380013</v>
+        <v>-0.04276125146051395</v>
       </c>
       <c r="C43">
-        <v>-0.04627980253876562</v>
+        <v>0.007239602439432558</v>
       </c>
       <c r="D43">
-        <v>-0.007630289706029343</v>
+        <v>0.02073844377462324</v>
       </c>
       <c r="E43">
-        <v>-0.03875274621862252</v>
+        <v>-0.02543325265775249</v>
       </c>
       <c r="F43">
-        <v>0.01875266544468661</v>
+        <v>0.01138482754056051</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09966264787768356</v>
+        <v>-0.07357037475962575</v>
       </c>
       <c r="C44">
-        <v>-0.0995188535015291</v>
+        <v>0.0227579228936953</v>
       </c>
       <c r="D44">
-        <v>-0.07983816570771797</v>
+        <v>0.09806047450737386</v>
       </c>
       <c r="E44">
-        <v>-0.04501750735431709</v>
+        <v>-0.06453450928351782</v>
       </c>
       <c r="F44">
-        <v>0.09590675734279629</v>
+        <v>-0.1759666334721704</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03767453004828222</v>
+        <v>-0.0237207868081305</v>
       </c>
       <c r="C46">
-        <v>-0.03644982624744312</v>
+        <v>0.004254066241647094</v>
       </c>
       <c r="D46">
-        <v>-0.04056955654215832</v>
+        <v>0.01150358340129425</v>
       </c>
       <c r="E46">
-        <v>-0.01029052140394962</v>
+        <v>-0.02080337208877868</v>
       </c>
       <c r="F46">
-        <v>0.04603191221671404</v>
+        <v>0.0003430699312087806</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04691328961172293</v>
+        <v>-0.05327876449739723</v>
       </c>
       <c r="C47">
-        <v>-0.04372385445901027</v>
+        <v>0.003515612566655343</v>
       </c>
       <c r="D47">
-        <v>-0.001086049928282492</v>
+        <v>0.01305610865016367</v>
       </c>
       <c r="E47">
-        <v>-0.004728556002393194</v>
+        <v>-0.02329598996494363</v>
       </c>
       <c r="F47">
-        <v>0.02034331500684746</v>
+        <v>0.04728189071780487</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0457470754607909</v>
+        <v>-0.04834787841734235</v>
       </c>
       <c r="C48">
-        <v>-0.0197188613000259</v>
+        <v>0.003368329869629931</v>
       </c>
       <c r="D48">
-        <v>0.01274109315858627</v>
+        <v>0.0451961876183648</v>
       </c>
       <c r="E48">
-        <v>0.00860716658314708</v>
+        <v>0.008266568227659693</v>
       </c>
       <c r="F48">
-        <v>0.0752449852771372</v>
+        <v>-0.01491465435829149</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.229026690871884</v>
+        <v>-0.2044652200492371</v>
       </c>
       <c r="C49">
-        <v>-0.04241206305807321</v>
+        <v>0.01691637358635009</v>
       </c>
       <c r="D49">
-        <v>0.0225599357746408</v>
+        <v>-0.009450545320164807</v>
       </c>
       <c r="E49">
-        <v>0.06593296243771224</v>
+        <v>-0.04078206097097887</v>
       </c>
       <c r="F49">
-        <v>-0.3201945304629213</v>
+        <v>-0.03190137601153951</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04223434115023464</v>
+        <v>-0.04890115318922996</v>
       </c>
       <c r="C50">
-        <v>-0.04644198737540028</v>
+        <v>0.01124178223392072</v>
       </c>
       <c r="D50">
-        <v>0.0171101675506017</v>
+        <v>0.02636354771659772</v>
       </c>
       <c r="E50">
-        <v>-0.04316501344160788</v>
+        <v>-0.02864091574112271</v>
       </c>
       <c r="F50">
-        <v>0.05516461950980235</v>
+        <v>-0.007917843120847149</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02495586630072436</v>
+        <v>-0.003243766019912845</v>
       </c>
       <c r="C51">
-        <v>0.003051851832819728</v>
+        <v>0.0007647783343576914</v>
       </c>
       <c r="D51">
-        <v>-0.001928400145298092</v>
+        <v>-0.001953278452653092</v>
       </c>
       <c r="E51">
-        <v>0.03290989424221485</v>
+        <v>-0.001008927228535977</v>
       </c>
       <c r="F51">
-        <v>-0.0340553752518463</v>
+        <v>-0.004189049863586497</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05497643234771589</v>
+        <v>-0.1427544283150292</v>
       </c>
       <c r="C52">
-        <v>-0.02879517277307811</v>
+        <v>0.01278016070251596</v>
       </c>
       <c r="D52">
-        <v>0.03379532064362759</v>
+        <v>0.0488343741671568</v>
       </c>
       <c r="E52">
-        <v>-0.05048639751196475</v>
+        <v>-0.01790826875847681</v>
       </c>
       <c r="F52">
-        <v>0.0007382750878801483</v>
+        <v>-0.03503102413173232</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1545839433241138</v>
+        <v>-0.1734047724299912</v>
       </c>
       <c r="C53">
-        <v>-0.06422666383151092</v>
+        <v>0.01566996593922729</v>
       </c>
       <c r="D53">
-        <v>-0.009694810787675806</v>
+        <v>0.01540986167096687</v>
       </c>
       <c r="E53">
-        <v>-0.0527975329854337</v>
+        <v>-0.03798312010282596</v>
       </c>
       <c r="F53">
-        <v>-0.08016253787801278</v>
+        <v>-0.06616185011149402</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05596952413454919</v>
+        <v>-0.02327018893977067</v>
       </c>
       <c r="C54">
-        <v>-0.05214570524510038</v>
+        <v>0.0128566282604933</v>
       </c>
       <c r="D54">
-        <v>0.001615508351273779</v>
+        <v>0.03190997339792984</v>
       </c>
       <c r="E54">
-        <v>0.0001210944230017386</v>
+        <v>-0.01290261252793086</v>
       </c>
       <c r="F54">
-        <v>0.1512470023571385</v>
+        <v>0.002869848342442399</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08008630890918879</v>
+        <v>-0.114382487471114</v>
       </c>
       <c r="C55">
-        <v>-0.04954016161043043</v>
+        <v>0.01448521558373005</v>
       </c>
       <c r="D55">
-        <v>0.03374105304167033</v>
+        <v>0.01401358268269006</v>
       </c>
       <c r="E55">
-        <v>0.002325543450893481</v>
+        <v>-0.03043305863861726</v>
       </c>
       <c r="F55">
-        <v>-0.02292176403679652</v>
+        <v>-0.04876324525804628</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1439337056372366</v>
+        <v>-0.1776637108299516</v>
       </c>
       <c r="C56">
-        <v>-0.09705386835571174</v>
+        <v>0.01316613041602704</v>
       </c>
       <c r="D56">
-        <v>0.02237239607934584</v>
+        <v>0.00942506309372371</v>
       </c>
       <c r="E56">
-        <v>-0.03637522848619811</v>
+        <v>-0.04298747366670204</v>
       </c>
       <c r="F56">
-        <v>-0.05977192330439803</v>
+        <v>-0.03710590395659581</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04404782628709465</v>
+        <v>-0.04692753364155861</v>
       </c>
       <c r="C58">
-        <v>-0.03188643077479568</v>
+        <v>0.003088513040527736</v>
       </c>
       <c r="D58">
-        <v>-0.0365995253742395</v>
+        <v>0.06419237904790889</v>
       </c>
       <c r="E58">
-        <v>-0.02678397051107911</v>
+        <v>-0.01721600911731136</v>
       </c>
       <c r="F58">
-        <v>0.03755094258542704</v>
+        <v>0.04881976224756306</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.223102960340267</v>
+        <v>-0.1693435147628561</v>
       </c>
       <c r="C59">
-        <v>0.2306957436847037</v>
+        <v>0.01399791385357935</v>
       </c>
       <c r="D59">
-        <v>0.04031611567369604</v>
+        <v>-0.2319665705616293</v>
       </c>
       <c r="E59">
-        <v>0.0684403625398735</v>
+        <v>0.04788446024205843</v>
       </c>
       <c r="F59">
-        <v>0.02044320202365623</v>
+        <v>0.03232448060918038</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2298493328078873</v>
+        <v>-0.2391751921064668</v>
       </c>
       <c r="C60">
-        <v>-0.1461080541185275</v>
+        <v>-0.004310408128814881</v>
       </c>
       <c r="D60">
-        <v>0.07030468993121008</v>
+        <v>0.04959424216138278</v>
       </c>
       <c r="E60">
-        <v>0.02944548261808598</v>
+        <v>-0.01107119367278975</v>
       </c>
       <c r="F60">
-        <v>-0.1563002195870242</v>
+        <v>0.03905672049378247</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1091255549210137</v>
+        <v>-0.08593425167241812</v>
       </c>
       <c r="C61">
-        <v>-0.07886325839260645</v>
+        <v>0.01453187568076561</v>
       </c>
       <c r="D61">
-        <v>0.08196656280979751</v>
+        <v>0.1088284902763144</v>
       </c>
       <c r="E61">
-        <v>-0.1014553511179705</v>
+        <v>-0.03396749728770421</v>
       </c>
       <c r="F61">
-        <v>0.1269577727688479</v>
+        <v>-0.02107418881112163</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1351903042087899</v>
+        <v>-0.1695503281571592</v>
       </c>
       <c r="C62">
-        <v>-0.07533958361313101</v>
+        <v>0.01704529652827524</v>
       </c>
       <c r="D62">
-        <v>-0.000535033612512963</v>
+        <v>0.01271336808782058</v>
       </c>
       <c r="E62">
-        <v>-0.0292464491088977</v>
+        <v>-0.03951712200327327</v>
       </c>
       <c r="F62">
-        <v>-0.09847229303017736</v>
+        <v>-0.01773340351485505</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05008139421233035</v>
+        <v>-0.04301783239792459</v>
       </c>
       <c r="C63">
-        <v>-0.02568693098824031</v>
+        <v>0.004067364403028555</v>
       </c>
       <c r="D63">
-        <v>0.01003199166449761</v>
+        <v>0.04738709251167717</v>
       </c>
       <c r="E63">
-        <v>-0.03196122011846488</v>
+        <v>-0.01584469247131683</v>
       </c>
       <c r="F63">
-        <v>0.07717398436545089</v>
+        <v>-0.01067593692293176</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09422326980546493</v>
+        <v>-0.112301910760267</v>
       </c>
       <c r="C64">
-        <v>-0.05356299850226309</v>
+        <v>0.011751786379348</v>
       </c>
       <c r="D64">
-        <v>0.004280695907303226</v>
+        <v>0.03989706232185021</v>
       </c>
       <c r="E64">
-        <v>-0.08164934546817119</v>
+        <v>-0.02019370343537363</v>
       </c>
       <c r="F64">
-        <v>0.05572909203161792</v>
+        <v>-0.01830732679082423</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1217406093571751</v>
+        <v>-0.1437361290329582</v>
       </c>
       <c r="C65">
-        <v>-0.04484264798100888</v>
+        <v>0.03095630963283631</v>
       </c>
       <c r="D65">
-        <v>0.02553501562633309</v>
+        <v>-0.0467604170016974</v>
       </c>
       <c r="E65">
-        <v>-0.03969776331529271</v>
+        <v>-0.00307760586745158</v>
       </c>
       <c r="F65">
-        <v>0.03222050444060007</v>
+        <v>-0.04237095528181877</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.12187890941281</v>
+        <v>-0.1332746379065549</v>
       </c>
       <c r="C66">
-        <v>-0.1265915849950496</v>
+        <v>0.01627647999911905</v>
       </c>
       <c r="D66">
-        <v>0.1277748556582593</v>
+        <v>0.1345709583692573</v>
       </c>
       <c r="E66">
-        <v>-0.1583834970472038</v>
+        <v>-0.05977214785614117</v>
       </c>
       <c r="F66">
-        <v>0.07094751869515603</v>
+        <v>-0.04152095060801377</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06864153726054759</v>
+        <v>-0.06477276023538277</v>
       </c>
       <c r="C67">
-        <v>-0.05079269592642064</v>
+        <v>0.003980208916326445</v>
       </c>
       <c r="D67">
-        <v>-0.03578073992134333</v>
+        <v>0.05456920702292745</v>
       </c>
       <c r="E67">
-        <v>-0.0496683644079609</v>
+        <v>-0.02074197420809759</v>
       </c>
       <c r="F67">
-        <v>-0.1100033395528238</v>
+        <v>0.04183790641293272</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1347126033391051</v>
+        <v>-0.1113966770075952</v>
       </c>
       <c r="C68">
-        <v>0.257564597911664</v>
+        <v>0.0232069087098033</v>
       </c>
       <c r="D68">
-        <v>0.02180639032309707</v>
+        <v>-0.26934327267721</v>
       </c>
       <c r="E68">
-        <v>-0.02960040343808998</v>
+        <v>0.08539200349796211</v>
       </c>
       <c r="F68">
-        <v>0.05303374809203155</v>
+        <v>-0.04354971114964926</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.05002464561249498</v>
+        <v>-0.04043855485462149</v>
       </c>
       <c r="C69">
-        <v>-0.01686624122238</v>
+        <v>0.001196432329593323</v>
       </c>
       <c r="D69">
-        <v>-0.00227451124508512</v>
+        <v>0.009450094983022218</v>
       </c>
       <c r="E69">
-        <v>-0.03493150071902023</v>
+        <v>-0.02584435221209459</v>
       </c>
       <c r="F69">
-        <v>0.01046791796604374</v>
+        <v>0.01561274231012817</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04997839886082938</v>
+        <v>-0.06522445587295854</v>
       </c>
       <c r="C70">
-        <v>-0.04251828939704264</v>
+        <v>-0.02743942266426495</v>
       </c>
       <c r="D70">
-        <v>0.03264147163084681</v>
+        <v>0.02574302097801905</v>
       </c>
       <c r="E70">
-        <v>-0.04631507988766947</v>
+        <v>0.04682570768291016</v>
       </c>
       <c r="F70">
-        <v>0.07282824141142065</v>
+        <v>0.3147308104093407</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1531005696784646</v>
+        <v>-0.1304700476225171</v>
       </c>
       <c r="C71">
-        <v>0.2748484530578981</v>
+        <v>0.02726285286040167</v>
       </c>
       <c r="D71">
-        <v>0.01810338610613987</v>
+        <v>-0.2858694815843032</v>
       </c>
       <c r="E71">
-        <v>-0.05618638410943098</v>
+        <v>0.092730387442994</v>
       </c>
       <c r="F71">
-        <v>0.0536110835210908</v>
+        <v>-0.04590243099964722</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1345015254485483</v>
+        <v>-0.1378044087555989</v>
       </c>
       <c r="C72">
-        <v>-0.01649921581723955</v>
+        <v>0.02403128471563888</v>
       </c>
       <c r="D72">
-        <v>0.005280886827492289</v>
+        <v>0.004810785744889705</v>
       </c>
       <c r="E72">
-        <v>-0.05521878166223644</v>
+        <v>-0.04250947418711139</v>
       </c>
       <c r="F72">
-        <v>0.001948480798201325</v>
+        <v>-0.02371284219890915</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2164116930943021</v>
+        <v>-0.2070426367804654</v>
       </c>
       <c r="C73">
-        <v>-0.0890093520342595</v>
+        <v>0.01104514177426572</v>
       </c>
       <c r="D73">
-        <v>0.1172777862780261</v>
+        <v>0.01801166466496497</v>
       </c>
       <c r="E73">
-        <v>0.03110295832550643</v>
+        <v>-0.06719182975215046</v>
       </c>
       <c r="F73">
-        <v>-0.5143499688070592</v>
+        <v>-0.02783656684235083</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1005434150388206</v>
+        <v>-0.09413029398368675</v>
       </c>
       <c r="C74">
-        <v>-0.08994017567611634</v>
+        <v>0.01188721124392212</v>
       </c>
       <c r="D74">
-        <v>0.01153675189430934</v>
+        <v>0.02494260902940748</v>
       </c>
       <c r="E74">
-        <v>-0.0882913082256656</v>
+        <v>-0.05106254066250451</v>
       </c>
       <c r="F74">
-        <v>-0.07075878671910849</v>
+        <v>-0.04219723635355897</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09780944576506978</v>
+        <v>-0.1303162489629397</v>
       </c>
       <c r="C75">
-        <v>-0.0693766613363667</v>
+        <v>0.02624379041210791</v>
       </c>
       <c r="D75">
-        <v>0.00490669855800516</v>
+        <v>0.0342626660868548</v>
       </c>
       <c r="E75">
-        <v>0.01416916282872056</v>
+        <v>-0.06105947056402379</v>
       </c>
       <c r="F75">
-        <v>-0.01310362599076089</v>
+        <v>-0.0117105283726895</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0538623738223683</v>
+        <v>-0.007337653309371208</v>
       </c>
       <c r="C76">
-        <v>-0.05941741818467481</v>
+        <v>0.001624352511914914</v>
       </c>
       <c r="D76">
-        <v>-0.006288994723908628</v>
+        <v>0.002428539670669305</v>
       </c>
       <c r="E76">
-        <v>0.01909068329870211</v>
+        <v>-0.007189936976869272</v>
       </c>
       <c r="F76">
-        <v>-0.03944043075025344</v>
+        <v>-0.004034304150858307</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06724165840942616</v>
+        <v>-0.08022256277325232</v>
       </c>
       <c r="C77">
-        <v>-0.02755990806007769</v>
+        <v>0.01071721352761535</v>
       </c>
       <c r="D77">
-        <v>0.03911227244413858</v>
+        <v>0.1086891473803422</v>
       </c>
       <c r="E77">
-        <v>-0.01608554194292658</v>
+        <v>-0.03366488673940346</v>
       </c>
       <c r="F77">
-        <v>0.1349180277860523</v>
+        <v>-0.03024645996789526</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1505973806481786</v>
+        <v>-0.1101783984885939</v>
       </c>
       <c r="C78">
-        <v>-0.1488429038273317</v>
+        <v>0.04310952921788908</v>
       </c>
       <c r="D78">
-        <v>-0.1901865454663069</v>
+        <v>0.1184207866380269</v>
       </c>
       <c r="E78">
-        <v>0.7421682323335127</v>
+        <v>-0.08966896001435143</v>
       </c>
       <c r="F78">
-        <v>0.3112980855623215</v>
+        <v>-0.07328228869693786</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1325771508200056</v>
+        <v>-0.1637452888636328</v>
       </c>
       <c r="C79">
-        <v>-0.09021732129797831</v>
+        <v>0.02012862036068323</v>
       </c>
       <c r="D79">
-        <v>-0.00648595042942102</v>
+        <v>0.01996972620119191</v>
       </c>
       <c r="E79">
-        <v>-0.03773170788993626</v>
+        <v>-0.04898380572838763</v>
       </c>
       <c r="F79">
-        <v>-0.04267643165196352</v>
+        <v>-0.01049279073978826</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06866390793566778</v>
+        <v>-0.08050074613512034</v>
       </c>
       <c r="C80">
-        <v>-0.04424424761649227</v>
+        <v>-0.0006504103570158277</v>
       </c>
       <c r="D80">
-        <v>0.08791409441808952</v>
+        <v>0.05531907313843729</v>
       </c>
       <c r="E80">
-        <v>-0.02758620438374989</v>
+        <v>-0.02992739600560144</v>
       </c>
       <c r="F80">
-        <v>0.0841880668529227</v>
+        <v>0.01591983647082887</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1290017359744327</v>
+        <v>-0.1237474074882735</v>
       </c>
       <c r="C81">
-        <v>-0.09300048092667211</v>
+        <v>0.03015506272244785</v>
       </c>
       <c r="D81">
-        <v>-0.005563493335560294</v>
+        <v>0.0204125932866028</v>
       </c>
       <c r="E81">
-        <v>-0.02314771183945296</v>
+        <v>-0.06182991579255036</v>
       </c>
       <c r="F81">
-        <v>0.0323842077230439</v>
+        <v>-0.000892875091565686</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1283473387252835</v>
+        <v>-0.1628410051918583</v>
       </c>
       <c r="C82">
-        <v>-0.06413066180204373</v>
+        <v>0.02054743820684809</v>
       </c>
       <c r="D82">
-        <v>0.01477474254211753</v>
+        <v>0.01679929972167024</v>
       </c>
       <c r="E82">
-        <v>-0.06676053739786132</v>
+        <v>-0.03628951048575223</v>
       </c>
       <c r="F82">
-        <v>-0.02184417086664747</v>
+        <v>-0.05923074767864436</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07102136283017756</v>
+        <v>-0.065525953510281</v>
       </c>
       <c r="C83">
-        <v>-0.08385571811808212</v>
+        <v>0.004000197129246785</v>
       </c>
       <c r="D83">
-        <v>0.03635239529183616</v>
+        <v>0.04860083350533377</v>
       </c>
       <c r="E83">
-        <v>-0.09648755245918854</v>
+        <v>-0.002692905795551861</v>
       </c>
       <c r="F83">
-        <v>0.04762419854426737</v>
+        <v>0.03990386598104679</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05721292266722548</v>
+        <v>-0.06092938096594859</v>
       </c>
       <c r="C84">
-        <v>0.06649522656778539</v>
+        <v>0.01139610466910204</v>
       </c>
       <c r="D84">
-        <v>0.03329193059762146</v>
+        <v>0.05989982085065355</v>
       </c>
       <c r="E84">
-        <v>0.129168470208788</v>
+        <v>0.004303062578268177</v>
       </c>
       <c r="F84">
-        <v>0.0701243313271506</v>
+        <v>-0.01473422416842301</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1189788680811613</v>
+        <v>-0.1383856931943965</v>
       </c>
       <c r="C85">
-        <v>-0.0604564157636077</v>
+        <v>0.02550152004788859</v>
       </c>
       <c r="D85">
-        <v>0.005633313757155173</v>
+        <v>0.01596151407089911</v>
       </c>
       <c r="E85">
-        <v>-0.04894891636993032</v>
+        <v>-0.04081482864074008</v>
       </c>
       <c r="F85">
-        <v>-0.05531707854040924</v>
+        <v>-0.04483508599139559</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08948976075449412</v>
+        <v>-0.09882757019313169</v>
       </c>
       <c r="C86">
-        <v>-0.03279466733540064</v>
+        <v>-0.006508905635257541</v>
       </c>
       <c r="D86">
-        <v>-0.02901827768486274</v>
+        <v>0.02045528286372539</v>
       </c>
       <c r="E86">
-        <v>0.281572147165802</v>
+        <v>-0.1329688967226129</v>
       </c>
       <c r="F86">
-        <v>-0.1371483309594451</v>
+        <v>0.8456452973193482</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1179040551712082</v>
+        <v>-0.1002862465223573</v>
       </c>
       <c r="C87">
-        <v>-0.08464826142178183</v>
+        <v>0.02571468910877487</v>
       </c>
       <c r="D87">
-        <v>-0.0139291578808476</v>
+        <v>0.07264360099410638</v>
       </c>
       <c r="E87">
-        <v>-0.009041991607772099</v>
+        <v>0.05284456873488456</v>
       </c>
       <c r="F87">
-        <v>0.03835044753146286</v>
+        <v>-0.08668768250430388</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05843659608833546</v>
+        <v>-0.06251029140988271</v>
       </c>
       <c r="C88">
-        <v>-0.06123173394684508</v>
+        <v>0.00329892488453746</v>
       </c>
       <c r="D88">
-        <v>0.04303034018961824</v>
+        <v>0.05323100105588561</v>
       </c>
       <c r="E88">
-        <v>-0.04906149251492364</v>
+        <v>-0.02607850157456417</v>
       </c>
       <c r="F88">
-        <v>0.0203103265275964</v>
+        <v>-0.007969820541161571</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2264247150644102</v>
+        <v>-0.1318634391593904</v>
       </c>
       <c r="C89">
-        <v>0.3672153058445513</v>
+        <v>0.005853176287905961</v>
       </c>
       <c r="D89">
-        <v>-0.0562830491157116</v>
+        <v>-0.2660771752524197</v>
       </c>
       <c r="E89">
-        <v>0.03664244904864136</v>
+        <v>0.09047132518425871</v>
       </c>
       <c r="F89">
-        <v>0.02017245423986401</v>
+        <v>-0.02815288302161214</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1621534130889699</v>
+        <v>-0.1423468080115246</v>
       </c>
       <c r="C90">
-        <v>0.2602677445236489</v>
+        <v>0.02297691910193163</v>
       </c>
       <c r="D90">
-        <v>0.01224525099708103</v>
+        <v>-0.2731774551720413</v>
       </c>
       <c r="E90">
-        <v>-0.04434948953940195</v>
+        <v>0.1053744933355569</v>
       </c>
       <c r="F90">
-        <v>0.007564927799275944</v>
+        <v>-0.02916933671680937</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0794657571105272</v>
+        <v>-0.1172591616668854</v>
       </c>
       <c r="C91">
-        <v>-0.07262790021272456</v>
+        <v>0.01625982650254936</v>
       </c>
       <c r="D91">
-        <v>0.008417429660015827</v>
+        <v>-0.003793178058302184</v>
       </c>
       <c r="E91">
-        <v>-0.00666116644469966</v>
+        <v>-0.05945648666538587</v>
       </c>
       <c r="F91">
-        <v>-0.00512875675996696</v>
+        <v>0.02514716624001029</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1864714554020845</v>
+        <v>-0.1458717969259288</v>
       </c>
       <c r="C92">
-        <v>0.3011280517747595</v>
+        <v>0.01466176076681996</v>
       </c>
       <c r="D92">
-        <v>-0.02607923381548482</v>
+        <v>-0.3064109896046918</v>
       </c>
       <c r="E92">
-        <v>-0.006259445810057954</v>
+        <v>0.1011020129685787</v>
       </c>
       <c r="F92">
-        <v>0.09693787642274938</v>
+        <v>-0.02521355967209789</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1754146170934896</v>
+        <v>-0.1465140640092854</v>
       </c>
       <c r="C93">
-        <v>0.2987335242453342</v>
+        <v>0.0194594305156182</v>
       </c>
       <c r="D93">
-        <v>0.04074622808356019</v>
+        <v>-0.2756085583983306</v>
       </c>
       <c r="E93">
-        <v>-0.02239712653119687</v>
+        <v>0.07125700426208272</v>
       </c>
       <c r="F93">
-        <v>0.02698489868979593</v>
+        <v>-0.02224156488729816</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1221566570610488</v>
+        <v>-0.1335888453613514</v>
       </c>
       <c r="C94">
-        <v>-0.08115597297499896</v>
+        <v>0.02355855875894887</v>
       </c>
       <c r="D94">
-        <v>-0.01031227635397631</v>
+        <v>0.0473820827082834</v>
       </c>
       <c r="E94">
-        <v>-0.01611809196674134</v>
+        <v>-0.06196739587195665</v>
       </c>
       <c r="F94">
-        <v>-0.03255935146625773</v>
+        <v>-0.02969018406903493</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1157192765017988</v>
+        <v>-0.1273344532081221</v>
       </c>
       <c r="C95">
-        <v>-0.07112973467563607</v>
+        <v>0.005762588741699778</v>
       </c>
       <c r="D95">
-        <v>-0.02620817117488164</v>
+        <v>0.09069820576594118</v>
       </c>
       <c r="E95">
-        <v>0.1249173778795744</v>
+        <v>-0.04361079709294622</v>
       </c>
       <c r="F95">
-        <v>0.03821121223819961</v>
+        <v>0.01253003760615594</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0003990540044757617</v>
+        <v>-0.09572090105286837</v>
       </c>
       <c r="C96">
-        <v>-0.001979226776096961</v>
+        <v>-0.9892908016587595</v>
       </c>
       <c r="D96">
-        <v>0.000513612819020568</v>
+        <v>-0.02083969884033282</v>
       </c>
       <c r="E96">
-        <v>0.006473660917740989</v>
+        <v>-0.05941242934098069</v>
       </c>
       <c r="F96">
-        <v>0.003687863299744734</v>
+        <v>-0.04836559888285293</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1239667115481547</v>
+        <v>-0.1865249671570715</v>
       </c>
       <c r="C97">
-        <v>-0.0271380609731245</v>
+        <v>-0.01204503291906866</v>
       </c>
       <c r="D97">
-        <v>-0.04989602938538638</v>
+        <v>-0.01163449777098708</v>
       </c>
       <c r="E97">
-        <v>-0.05935640949966741</v>
+        <v>-0.01499047220902012</v>
       </c>
       <c r="F97">
-        <v>0.1325821930180305</v>
+        <v>0.1761556051388541</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.232294367365588</v>
+        <v>-0.2064349993128293</v>
       </c>
       <c r="C98">
-        <v>-0.08623506008276954</v>
+        <v>0.006809593495430712</v>
       </c>
       <c r="D98">
-        <v>-0.09511740846204822</v>
+        <v>0.01592946316530309</v>
       </c>
       <c r="E98">
-        <v>0.1438765447042499</v>
+        <v>0.09009610746160621</v>
       </c>
       <c r="F98">
-        <v>-0.225891573250783</v>
+        <v>0.1305537952696007</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06711512275274671</v>
+        <v>-0.05808343673244597</v>
       </c>
       <c r="C99">
-        <v>-0.05763945503827382</v>
+        <v>-0.003197100806114143</v>
       </c>
       <c r="D99">
-        <v>-0.008796310245237067</v>
+        <v>0.0346461243396476</v>
       </c>
       <c r="E99">
-        <v>0.02026382547091898</v>
+        <v>-0.02676845611185392</v>
       </c>
       <c r="F99">
-        <v>-0.03191711544339331</v>
+        <v>-0.004769131991962781</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.00321244840693669</v>
+        <v>-0.1244149189241597</v>
       </c>
       <c r="C100">
-        <v>0.006027503412195183</v>
+        <v>-0.04857509044826468</v>
       </c>
       <c r="D100">
-        <v>0.003270707863175198</v>
+        <v>0.3250858884186333</v>
       </c>
       <c r="E100">
-        <v>-0.01226179717515764</v>
+        <v>0.9044155813026342</v>
       </c>
       <c r="F100">
-        <v>0.008663932599672526</v>
+        <v>0.05751411093975155</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03503353230111596</v>
+        <v>-0.02734668133748145</v>
       </c>
       <c r="C101">
-        <v>-0.03067552815610779</v>
+        <v>0.009221314748973641</v>
       </c>
       <c r="D101">
-        <v>0.020447582376147</v>
+        <v>0.02987491624654453</v>
       </c>
       <c r="E101">
-        <v>-0.02331390995782458</v>
+        <v>-0.008565877342739611</v>
       </c>
       <c r="F101">
-        <v>0.06197739928280805</v>
+        <v>0.01141840543746326</v>
       </c>
     </row>
     <row r="102" spans="1:6">
